--- a/CoreRulebook/Data/Archetypes/Acolyte.xlsx
+++ b/CoreRulebook/Data/Archetypes/Acolyte.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t xml:space="preserve">Level</t>
   </si>
@@ -61,15 +61,15 @@
     <t xml:space="preserve">FP:</t>
   </si>
   <si>
+    <t xml:space="preserve">Novice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Armour:</t>
   </si>
   <si>
     <t xml:space="preserve">None</t>
   </si>
   <si>
-    <t xml:space="preserve">Novice</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tools:</t>
   </si>
   <si>
@@ -79,16 +79,19 @@
     <t xml:space="preserve">Weapons:</t>
   </si>
   <si>
+    <t xml:space="preserve">Adept</t>
+  </si>
+  <si>
     <t xml:space="preserve">Proficiencies:</t>
   </si>
   <si>
     <t xml:space="preserve">Equipment:</t>
   </si>
   <si>
-    <t xml:space="preserve">Adept</t>
-  </si>
-  <si>
     <t xml:space="preserve">Memorised Spells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expert</t>
   </si>
   <si>
     <t xml:space="preserve">List1 Name</t>
@@ -231,7 +234,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -335,13 +338,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,7 +356,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
@@ -368,7 +371,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
@@ -383,7 +386,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>18</v>
@@ -398,10 +401,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,10 +416,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>22</v>
@@ -443,10 +446,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -458,10 +461,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -521,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
